--- a/Overall Stats/East Canyon/East Canyon Report.xlsx
+++ b/Overall Stats/East Canyon/East Canyon Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\East Canyon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C07719-0082-45BF-AC12-1E3F25D9CA95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21819F-09BE-4826-84C7-5DD153427224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
@@ -16,25 +16,20 @@
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -153,14 +148,23 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Fair</t>
+    <t>East Canyon Report 2020</t>
+  </si>
+  <si>
+    <t>29 Rainbow</t>
+  </si>
+  <si>
+    <t>19 Rainbow</t>
+  </si>
+  <si>
+    <t>3 Rainbow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +252,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -306,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,12 +349,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,7 +359,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1076,13 +1079,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.57803468208092479</c:v>
+                  <c:v>0.4464285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.843930635838149</c:v>
+                  <c:v>76.339285714285708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57803468208092479</c:v>
+                  <c:v>0.4464285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,12 +2729,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2776,12 +2779,12 @@
         <f>SUM(C4)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2861,24 +2864,24 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -2958,12 +2961,12 @@
       <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3150,7 +3153,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I2" sqref="I2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,26 +3180,26 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3224,7 +3227,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="8">
@@ -3248,7 +3251,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="8"/>
@@ -3264,16 +3267,16 @@
       <c r="H5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="8"/>
@@ -3296,7 +3299,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="8"/>
@@ -3321,7 +3324,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="8"/>
@@ -3342,7 +3345,7 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8"/>
@@ -3392,7 +3395,7 @@
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3407,11 +3410,207 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77B2201-4E33-4C36-9BF3-E539412571F9}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUM(D4:D6)</f>
+        <v>51</v>
+      </c>
+      <c r="F7" s="28">
+        <f>SUM(F4/D7*100)</f>
+        <v>100</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11">
+        <f>AVERAGE(D4:D6)</f>
+        <v>17</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2918E2B-8E24-4AF4-8FF6-B2131238C978}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,12 +3622,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3456,12 +3655,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3477,15 +3676,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>SUM(A3/$B$8*100)</f>
-        <v>0.57803468208092479</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="B6" s="17">
         <f>SUM(B3/$B$8*100)</f>
-        <v>98.843930635838149</v>
+        <v>76.339285714285708</v>
       </c>
       <c r="C6" s="17">
         <f>SUM(C3/$B$8*100)</f>
-        <v>0.57803468208092479</v>
+        <v>0.4464285714285714</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3493,8 +3692,8 @@
         <v>17</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!C5+'2018'!H12+'2019'!G10)</f>
-        <v>173</v>
+        <f>SUM('2017'!C5+'2018'!H12+'2019'!G10+'2020'!D7)</f>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3502,8 +3701,8 @@
         <v>18</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!C6+'2018'!H13+'2019'!G11)</f>
-        <v>15</v>
+        <f>SUM('2017'!C6+'2018'!H13+'2019'!G11+'2020'!D8)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3512,15 +3711,15 @@
       </c>
       <c r="B10" s="16">
         <f>SUM(B8/B9)</f>
-        <v>11.533333333333333</v>
+        <v>12.444444444444445</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>39</v>
+      <c r="B11" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Overall Stats/East Canyon/East Canyon Report.xlsx
+++ b/Overall Stats/East Canyon/East Canyon Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21819F-09BE-4826-84C7-5DD153427224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D9F33-9B40-4945-BEB2-F188AFBBF287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
@@ -148,9 +148,6 @@
     <t>Good</t>
   </si>
   <si>
-    <t>East Canyon Report 2020</t>
-  </si>
-  <si>
     <t>29 Rainbow</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>3 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 East Canyon</t>
   </si>
 </sst>
 </file>
@@ -359,6 +359,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,12 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2729,12 +2729,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2779,12 +2779,12 @@
         <f>SUM(C4)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2864,24 +2864,24 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -2961,12 +2961,12 @@
       <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3180,25 +3180,25 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3267,12 +3267,12 @@
       <c r="H5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3414,12 +3414,12 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
@@ -3429,7 +3429,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3442,22 +3442,22 @@
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -3494,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="8">
         <v>51</v>
@@ -3518,14 +3518,14 @@
         <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -3543,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>21</v>
@@ -3562,7 +3562,7 @@
         <f>SUM(D4:D6)</f>
         <v>51</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <f>SUM(F4/D7*100)</f>
         <v>100</v>
       </c>
@@ -3622,12 +3622,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3655,12 +3655,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3718,7 +3718,7 @@
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Overall Stats/East Canyon/East Canyon Report.xlsx
+++ b/Overall Stats/East Canyon/East Canyon Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D9F33-9B40-4945-BEB2-F188AFBBF287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E302E68-76DB-41C3-8C53-8BFAE7C7861E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
+    <workbookView xWindow="11925" yWindow="1230" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -3413,7 +3413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77B2201-4E33-4C36-9BF3-E539412571F9}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/East Canyon/East Canyon Report.xlsx
+++ b/Overall Stats/East Canyon/East Canyon Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E302E68-76DB-41C3-8C53-8BFAE7C7861E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000F09C-2305-4C0F-8AAA-B586B3DC66B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11925" yWindow="1230" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -636,7 +636,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1082,7 +1082,7 @@
                   <c:v>0.4464285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.339285714285708</c:v>
+                  <c:v>99.107142857142861</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.4464285714285714</c:v>
@@ -3413,7 +3413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77B2201-4E33-4C36-9BF3-E539412571F9}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3609,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2918E2B-8E24-4AF4-8FF6-B2131238C978}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,8 +3646,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2017'!E4+'2018'!K4+'2019'!I4)</f>
-        <v>171</v>
+        <f>SUM('2017'!E4+'2018'!K4+'2019'!I4+'2020'!F4)</f>
+        <v>222</v>
       </c>
       <c r="C3" s="8">
         <f>SUM('2018'!L4)</f>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B6" s="17">
         <f>SUM(B3/$B$8*100)</f>
-        <v>76.339285714285708</v>
+        <v>99.107142857142861</v>
       </c>
       <c r="C6" s="17">
         <f>SUM(C3/$B$8*100)</f>

--- a/Overall Stats/East Canyon/East Canyon Report.xlsx
+++ b/Overall Stats/East Canyon/East Canyon Report.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6000F09C-2305-4C0F-8AAA-B586B3DC66B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80F8A8-4FD2-44C7-AD6F-37D54827D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -158,13 +166,31 @@
   </si>
   <si>
     <t>Fishing Report 2020 East Canyon</t>
+  </si>
+  <si>
+    <t>1 Kokanee 39 Rainbow</t>
+  </si>
+  <si>
+    <t>22 Rainbow</t>
+  </si>
+  <si>
+    <t>35 Rainbow</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Kokanee</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 East Canyon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +278,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -303,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +398,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,6 +408,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -611,16 +656,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$C$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$D$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Brown</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Kokanee</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rainbow</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Wiper</c:v>
                 </c:pt>
               </c:strCache>
@@ -628,17 +676,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$C$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1055,18 +1106,64 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$C$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$D$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Brown</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Kokanee</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Rainbow</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Wiper</c:v>
                 </c:pt>
               </c:strCache>
@@ -1074,18 +1171,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$C$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.4464285714285714</c:v>
+                  <c:v>0.3115264797507788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.107142857142861</c:v>
+                  <c:v>0.3115264797507788</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4464285714285714</c:v>
+                  <c:v>99.065420560747668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3115264797507788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2729,12 +2829,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2779,12 +2879,12 @@
         <f>SUM(C4)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2864,24 +2964,24 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -2961,12 +3061,12 @@
       <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3180,25 +3280,25 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
       <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3267,12 +3367,12 @@
       <c r="H5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3413,8 +3513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77B2201-4E33-4C36-9BF3-E539412571F9}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3442,22 +3542,22 @@
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -3520,12 +3620,12 @@
       <c r="E5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -3606,37 +3706,213 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4CE8B4-C3F9-410C-92FF-B3F70C0C4F1C}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>96</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUM(C4:C6)</f>
+        <v>97</v>
+      </c>
+      <c r="E7" s="17">
+        <f>SUM(E4/$C$7*100)</f>
+        <v>1.0309278350515463</v>
+      </c>
+      <c r="F7" s="17">
+        <f>SUM(F4/$C$7*100)</f>
+        <v>98.969072164948457</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12">
+        <f>AVERAGE(C4:C6)</f>
+        <v>32.333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2918E2B-8E24-4AF4-8FF6-B2131238C978}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3646,45 +3922,56 @@
         <v>1</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2017'!E4+'2018'!K4+'2019'!I4+'2020'!F4)</f>
-        <v>222</v>
+        <f>SUM('2021'!E4)</f>
+        <v>1</v>
       </c>
       <c r="C3" s="8">
+        <f>SUM('2017'!E4+'2018'!K4+'2019'!I4+'2020'!F4+'2021'!F4)</f>
+        <v>318</v>
+      </c>
+      <c r="D3" s="8">
         <f>SUM('2018'!L4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>SUM(A3/$B$8*100)</f>
-        <v>0.4464285714285714</v>
+        <v>0.3115264797507788</v>
       </c>
       <c r="B6" s="17">
         <f>SUM(B3/$B$8*100)</f>
-        <v>99.107142857142861</v>
+        <v>0.3115264797507788</v>
       </c>
       <c r="C6" s="17">
         <f>SUM(C3/$B$8*100)</f>
-        <v>0.4464285714285714</v>
+        <v>99.065420560747668</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUM(D3/$B$8*100)</f>
+        <v>0.3115264797507788</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3692,8 +3979,8 @@
         <v>17</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!C5+'2018'!H12+'2019'!G10+'2020'!D7)</f>
-        <v>224</v>
+        <f>SUM('2017'!C5+'2018'!H12+'2019'!G10+'2020'!D7+'2021'!C7)</f>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3701,8 +3988,8 @@
         <v>18</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!C6+'2018'!H13+'2019'!G11+'2020'!D8)</f>
-        <v>18</v>
+        <f>SUM('2017'!C6+'2018'!H13+'2019'!G11+'2020'!D8+'2021'!C8)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3711,7 +3998,7 @@
       </c>
       <c r="B10" s="16">
         <f>SUM(B8/B9)</f>
-        <v>12.444444444444445</v>
+        <v>15.285714285714286</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/East Canyon/East Canyon Report.xlsx
+++ b/Overall Stats/East Canyon/East Canyon Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\East Canyon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80F8A8-4FD2-44C7-AD6F-37D54827D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580E3B8-A468-4FD4-AD0D-A646386D22FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1CC40C57-B481-453A-AD59-0982A2BF1FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -401,6 +401,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,15 +417,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1148,6 +1148,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-521C-4BC6-839A-F31281FB5314}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2829,12 +2834,12 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2879,12 +2884,12 @@
         <f>SUM(C4)</f>
         <v>11</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2964,24 +2969,24 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3061,12 +3066,12 @@
       <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3280,25 +3285,25 @@
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -3367,12 +3372,12 @@
       <c r="H5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -3542,22 +3547,22 @@
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -3620,12 +3625,12 @@
       <c r="E5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -3709,7 +3714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4CE8B4-C3F9-410C-92FF-B3F70C0C4F1C}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3728,7 +3733,7 @@
         <v>48</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="31"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
@@ -3743,19 +3748,19 @@
       <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="5"/>
       <c r="E3" s="8" t="s">
         <v>47</v>
@@ -3799,12 +3804,12 @@
       <c r="D5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3866,7 +3871,7 @@
       <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3883,7 +3888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2918E2B-8E24-4AF4-8FF6-B2131238C978}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3895,12 +3900,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3935,12 +3940,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
